--- a/mysql/防漏费数据表.xlsx
+++ b/mysql/防漏费数据表.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -2231,15 +2231,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E765"/>
   <sheetViews>
-    <sheetView topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="D85" sqref="D85"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="3" max="3" width="19.5" customWidth="1"/>
+    <col min="1" max="1" width="24.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.625" customWidth="1"/>
+    <col min="3" max="3" width="36.375" customWidth="1"/>
     <col min="4" max="4" width="17" style="1" customWidth="1"/>
+    <col min="5" max="5" width="33" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -15255,13 +15257,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="A145" sqref="A145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
+    <col min="1" max="1" width="19.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
